--- a/module/waapi/waapi_auto_gen_music/音乐资源表.xlsx
+++ b/module/waapi/waapi_auto_gen_music/音乐资源表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="13470" windowHeight="9975"/>
+    <workbookView windowWidth="13470" windowHeight="9975" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Mus" sheetId="2" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
   <si>
     <t>资源名称</t>
   </si>
@@ -53,12 +53,6 @@
   <si>
     <t>谢谢</t>
   </si>
-  <si>
-    <t>Mus_Map_A02_Combat_Boss_Start_Re</t>
-  </si>
-  <si>
-    <t>Boss战开场</t>
-  </si>
 </sst>
 </file>
 
@@ -87,14 +81,14 @@
     </font>
     <font>
       <sz val="9.75"/>
+      <color rgb="FF000000"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9.75"/>
       <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9.75"/>
-      <color rgb="FF000000"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -718,10 +712,10 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1047,8 +1041,8 @@
   </sheetPr>
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="12.75" outlineLevelRow="4" outlineLevelCol="2"/>
@@ -1057,45 +1051,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3"/>
+      <c r="C1" s="2"/>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>9</v>
-      </c>
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1108,13 +1098,16 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14" defaultRowHeight="12.75" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="14" defaultRowHeight="12.75" outlineLevelRow="1" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" width="28.1428571428571" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
@@ -1124,6 +1117,10 @@
         <v>1</v>
       </c>
     </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/module/waapi/waapi_auto_gen_music/音乐资源表.xlsx
+++ b/module/waapi/waapi_auto_gen_music/音乐资源表.xlsx
@@ -48,10 +48,10 @@
     <t>Boss战开场转接</t>
   </si>
   <si>
-    <t>Mus_Map_A02_Combat_Boss_Trans_Piano</t>
+    <t>Stin_Map_A02_Combat_Boss_Trans_Piano</t>
   </si>
   <si>
-    <t>谢谢</t>
+    <t>啊啊</t>
   </si>
 </sst>
 </file>
@@ -1042,7 +1042,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:B4"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="12.75" outlineLevelRow="4" outlineLevelCol="2"/>
@@ -1076,12 +1076,8 @@
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>7</v>
-      </c>
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="2"/>
@@ -1101,7 +1097,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="12.75" outlineLevelRow="1" outlineLevelCol="1"/>
@@ -1118,8 +1114,12 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
+      <c r="A2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>7</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/module/waapi/waapi_auto_gen_music/音乐资源表.xlsx
+++ b/module/waapi/waapi_auto_gen_music/音乐资源表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="13470" windowHeight="9975" activeTab="1"/>
+    <workbookView windowWidth="13470" windowHeight="9975"/>
   </bookViews>
   <sheets>
     <sheet name="Mus" sheetId="2" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="6">
   <si>
     <t>资源名称</t>
   </si>
@@ -46,12 +46,6 @@
   </si>
   <si>
     <t>Boss战开场转接</t>
-  </si>
-  <si>
-    <t>Stin_Map_A02_Combat_Boss_Trans_Piano</t>
-  </si>
-  <si>
-    <t>啊啊</t>
   </si>
 </sst>
 </file>
@@ -1041,7 +1035,7 @@
   </sheetPr>
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
@@ -1096,8 +1090,8 @@
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="$A2:$XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="12.75" outlineLevelRow="1" outlineLevelCol="1"/>
@@ -1114,12 +1108,8 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>7</v>
-      </c>
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
